--- a/Simulation/validation_dz.xlsx
+++ b/Simulation/validation_dz.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\GitHub\SVV-A10\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="LE_DZ" sheetId="8" r:id="rId1"/>
-    <sheet name="HINGE_DZ" sheetId="7" r:id="rId2"/>
-    <sheet name="TE_DZ" sheetId="6" r:id="rId3"/>
+    <sheet name="TE_DZ" sheetId="6" r:id="rId1"/>
+    <sheet name="LE_DZ" sheetId="8" r:id="rId2"/>
+    <sheet name="HINGE_DZ" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -358,6 +358,1617 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D114"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-434.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-8.5717799999999993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25.5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-434.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-7.14315E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-434.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-5.7145199999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>76.5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-434.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-4.2858899999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-434.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-2.8572599999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>127.5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-434.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1.42863E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-9.6323873300000004E-9</v>
+      </c>
+      <c r="C8">
+        <v>-434.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-4.3686E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>177.699997</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-434.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.2789400000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>202.39999399999999</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-434.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.6487200000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>227.10000600000001</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-434.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.03275E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>251.800003</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-434.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.37549E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>276.5</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-434.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.75266E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>301.20001200000002</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-434.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.9784699999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>325.89999399999999</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>-434.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.2461700000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>350.60000600000001</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>-434.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.5423600000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>375.29998799999998</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>-434.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.83833E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>400</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>-434.5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.1468999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>424.70001200000002</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>-434.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.4390900000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>449.39999399999999</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>-434.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.74612E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>474.10000600000001</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>-434.5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.0210599999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>498.79998799999998</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>-434.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.33044E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>523.5</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-434.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.5798899999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>548.20001200000002</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>-434.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.9762599999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>572.90002400000003</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>-434.5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.9047899999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>597.59997599999997</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-434.5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.9760199999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>622.29998799999998</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>-434.5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5.0521900000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>647</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>-434.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.1575500000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>671.70001200000002</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>-434.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.2434099999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>696.40002400000003</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>-434.5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.3422400000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>721.09997599999997</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>-434.5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5.4059000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>745.79998799999998</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>-434.5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.4901199999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>770.5</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>-434.5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5.5222100000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>795.20001200000002</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>-434.5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5.6113099999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>819.90002400000003</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>-434.5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.6183200000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>844.59997599999997</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-434.5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5.8825099999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>869.29998799999998</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>-434.5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.3330200000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>894</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-434.5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.03223E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>918.70001200000002</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>-434.5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.7254699999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>943.40002400000003</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>-434.5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.4559799999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>968.09997599999997</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>-434.5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4.1777500000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>992.79998799999998</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>-434.5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.8814500000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1017.5</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>-434.5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.5983000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1042.1999499999999</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>-434.5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.2617199999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1066.90002</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>-434.5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.99706E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1091.59998</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>-434.5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.6380199999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1116.3000500000001</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>-434.5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.6327E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1141</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>-434.5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.00526E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1164.3333700000001</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>-434.5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.2236E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1187.6666299999999</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>-434.5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8.0425400000000008E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1211</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>-434.5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4.1983799999999998E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1234.3333700000001</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>-434.5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.8565999999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1257.6666299999999</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>-434.5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1.3298400000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1281</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-9.6323873300000004E-9</v>
+      </c>
+      <c r="C54">
+        <v>-434.5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-4.3711800000000002E-9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1304.3333700000001</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>-434.5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-5.6488999999999998E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1327.6666299999999</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>-434.5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-0.11013000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1351</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>-434.5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-0.169512</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1374.3333700000001</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>-434.5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-0.223076</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1397.6666299999999</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>-434.5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-0.27899000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1421</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>-434.5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-0.31876500000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1446.1999499999999</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>-434.5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-0.31688899999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1471.40002</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>-434.5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-0.32138899999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1496.59998</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>-434.5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-0.32429599999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1521.8000500000001</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>-434.5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-0.32864100000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1547</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>-434.5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-0.33187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1572.1999499999999</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>-434.5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-0.335814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1597.40002</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>-434.5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-0.33893200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1622.59998</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>-434.5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-0.34319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1647.8000500000001</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>-434.5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-0.346968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1673</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>-434.5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>-0.35584100000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1698.1999499999999</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>-434.5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-0.34841499999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1723.40002</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>-434.5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-0.34610400000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1748.59998</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>-434.5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-0.34242099999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1773.8000500000001</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>-434.5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-0.339758</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1799</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>-434.5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-0.336308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1824.1999499999999</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>-434.5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-0.33301999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1849.40002</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>-434.5</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-0.329457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1874.59998</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>-434.5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-0.32573099999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1899.8000500000001</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>-434.5</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-0.32253999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1925</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>-434.5</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-0.31921300000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1950.1999499999999</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>-434.5</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-0.31953399999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1975.40002</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>-434.5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-0.30797999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2000.59998</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>-434.5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-0.30014299999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2025.8000500000001</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>-434.5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-0.29117500000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2051</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>-434.5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-0.28298000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2076.1999500000002</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>-434.5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-0.274148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2101.3998999999999</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>-434.5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-0.26549600000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2126.6001000000001</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>-434.5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-0.25658799999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2151.8000499999998</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>-434.5</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-0.247668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2177</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>-434.5</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-0.239035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2202.1999500000002</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>-434.5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-0.23050599999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2227.3998999999999</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>-434.5</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-0.22422900000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2252.6001000000001</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>-434.5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-0.21057999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2277.8000499999998</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>-434.5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-0.19925200000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2303</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>-434.5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-0.18703400000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2328.1999500000002</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>-434.5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-0.17534</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2353.3998999999999</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>-434.5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-0.163161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2378.6001000000001</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>-434.5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-0.15118000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2403.8000499999998</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>-434.5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-0.138961</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2429</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>-434.5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>-0.12688099999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2454.1999500000002</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>-434.5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-0.114841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2479.3998999999999</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>-434.5</v>
+      </c>
+      <c r="D102" s="1">
+        <v>-0.103145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2504.6001000000001</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>-434.5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>-9.2303399999999994E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2529.8000499999998</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>-434.5</v>
+      </c>
+      <c r="D104" s="1">
+        <v>-7.85473E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2555</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>-434.5</v>
+      </c>
+      <c r="D105" s="1">
+        <v>-6.5613000000000005E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2580.1999500000002</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>-434.5</v>
+      </c>
+      <c r="D106" s="1">
+        <v>-5.2146699999999997E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2605.3998999999999</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>-434.5</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-3.8994800000000003E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2630.6001000000001</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>-434.5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-2.5661799999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2655.8000499999998</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>-434.5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>-1.28068E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2681</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>-434.5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>-5.3496899999999998E-36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2703.5</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>-434.5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>9.1670599999999994E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2726</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>-434.5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1.8334099999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2748.5</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>-434.5</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2.75012E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2771</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>-434.5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3.6668199999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D114"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1131"/>
   <sheetViews>
@@ -17810,1615 +19421,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D114"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>-434.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-8.5717799999999993E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>25.5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>-434.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-7.14315E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-434.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-5.7145199999999998E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>76.5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-434.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-4.2858899999999997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>102</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-434.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-2.8572599999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>127.5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-434.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-1.42863E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>153</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-9.6323873300000004E-9</v>
-      </c>
-      <c r="C8">
-        <v>-434.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-4.3686E-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>177.699997</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>-434.5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.2789400000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>202.39999399999999</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-434.5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.6487200000000003E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>227.10000600000001</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>-434.5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.03275E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>251.800003</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>-434.5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.37549E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>276.5</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>-434.5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.75266E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>301.20001200000002</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>-434.5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.9784699999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>325.89999399999999</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>-434.5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.2461700000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>350.60000600000001</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>-434.5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.5423600000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>375.29998799999998</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>-434.5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.83833E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>400</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>-434.5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.1468999999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>424.70001200000002</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>-434.5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.4390900000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>449.39999399999999</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>-434.5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.74612E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>474.10000600000001</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>-434.5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4.0210599999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>498.79998799999998</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>-434.5</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4.33044E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>523.5</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>-434.5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4.5798899999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>548.20001200000002</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>-434.5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4.9762599999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>572.90002400000003</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>-434.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4.9047899999999998E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>597.59997599999997</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>-434.5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4.9760199999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>622.29998799999998</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>-434.5</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5.0521900000000002E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>647</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>-434.5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5.1575500000000003E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>671.70001200000002</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>-434.5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5.2434099999999997E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>696.40002400000003</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>-434.5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5.3422400000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>721.09997599999997</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>-434.5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5.4059000000000003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>745.79998799999998</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>-434.5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5.4901199999999997E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>770.5</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>-434.5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5.5222100000000003E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>795.20001200000002</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>-434.5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5.6113099999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>819.90002400000003</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>-434.5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5.6183200000000003E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>844.59997599999997</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>-434.5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>5.8825099999999998E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>869.29998799999998</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>-434.5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5.3330200000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>894</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>-434.5</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5.03223E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>918.70001200000002</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>-434.5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4.7254699999999997E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>943.40002400000003</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>-434.5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4.4559799999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>968.09997599999997</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>-434.5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4.1777500000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>992.79998799999998</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>-434.5</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3.8814500000000002E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1017.5</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>-434.5</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3.5983000000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1042.1999499999999</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>-434.5</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3.2617199999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1066.90002</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>-434.5</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2.99706E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1091.59998</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>-434.5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2.6380199999999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1116.3000500000001</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>-434.5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2.6327E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1141</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>-434.5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2.00526E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1164.3333700000001</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>-434.5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1.2236E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1187.6666299999999</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>-434.5</v>
-      </c>
-      <c r="D50" s="1">
-        <v>8.0425400000000008E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1211</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>-434.5</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4.1983799999999998E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1234.3333700000001</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>-434.5</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.8565999999999999E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1257.6666299999999</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>-434.5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-1.3298400000000001E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1281</v>
-      </c>
-      <c r="B54" s="1">
-        <v>-9.6323873300000004E-9</v>
-      </c>
-      <c r="C54">
-        <v>-434.5</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-4.3711800000000002E-9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1304.3333700000001</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>-434.5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-5.6488999999999998E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1327.6666299999999</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>-434.5</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-0.11013000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1351</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>-434.5</v>
-      </c>
-      <c r="D57" s="1">
-        <v>-0.169512</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1374.3333700000001</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>-434.5</v>
-      </c>
-      <c r="D58" s="1">
-        <v>-0.223076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1397.6666299999999</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>-434.5</v>
-      </c>
-      <c r="D59" s="1">
-        <v>-0.27899000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1421</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>-434.5</v>
-      </c>
-      <c r="D60" s="1">
-        <v>-0.31876500000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1446.1999499999999</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>-434.5</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-0.31688899999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1471.40002</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>-434.5</v>
-      </c>
-      <c r="D62" s="1">
-        <v>-0.32138899999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1496.59998</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>-434.5</v>
-      </c>
-      <c r="D63" s="1">
-        <v>-0.32429599999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1521.8000500000001</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>-434.5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>-0.32864100000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1547</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>-434.5</v>
-      </c>
-      <c r="D65" s="1">
-        <v>-0.33187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1572.1999499999999</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>-434.5</v>
-      </c>
-      <c r="D66" s="1">
-        <v>-0.335814</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1597.40002</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>-434.5</v>
-      </c>
-      <c r="D67" s="1">
-        <v>-0.33893200000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1622.59998</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>-434.5</v>
-      </c>
-      <c r="D68" s="1">
-        <v>-0.34319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1647.8000500000001</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>-434.5</v>
-      </c>
-      <c r="D69" s="1">
-        <v>-0.346968</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1673</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>-434.5</v>
-      </c>
-      <c r="D70" s="1">
-        <v>-0.35584100000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1698.1999499999999</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>-434.5</v>
-      </c>
-      <c r="D71" s="1">
-        <v>-0.34841499999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1723.40002</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>-434.5</v>
-      </c>
-      <c r="D72" s="1">
-        <v>-0.34610400000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1748.59998</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>-434.5</v>
-      </c>
-      <c r="D73" s="1">
-        <v>-0.34242099999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1773.8000500000001</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>-434.5</v>
-      </c>
-      <c r="D74" s="1">
-        <v>-0.339758</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1799</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>-434.5</v>
-      </c>
-      <c r="D75" s="1">
-        <v>-0.336308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1824.1999499999999</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>-434.5</v>
-      </c>
-      <c r="D76" s="1">
-        <v>-0.33301999999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1849.40002</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>-434.5</v>
-      </c>
-      <c r="D77" s="1">
-        <v>-0.329457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1874.59998</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>-434.5</v>
-      </c>
-      <c r="D78" s="1">
-        <v>-0.32573099999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1899.8000500000001</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>-434.5</v>
-      </c>
-      <c r="D79" s="1">
-        <v>-0.32253999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1925</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>-434.5</v>
-      </c>
-      <c r="D80" s="1">
-        <v>-0.31921300000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1950.1999499999999</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>-434.5</v>
-      </c>
-      <c r="D81" s="1">
-        <v>-0.31953399999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1975.40002</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>-434.5</v>
-      </c>
-      <c r="D82" s="1">
-        <v>-0.30797999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2000.59998</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>-434.5</v>
-      </c>
-      <c r="D83" s="1">
-        <v>-0.30014299999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2025.8000500000001</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>-434.5</v>
-      </c>
-      <c r="D84" s="1">
-        <v>-0.29117500000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2051</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>-434.5</v>
-      </c>
-      <c r="D85" s="1">
-        <v>-0.28298000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2076.1999500000002</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>-434.5</v>
-      </c>
-      <c r="D86" s="1">
-        <v>-0.274148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2101.3998999999999</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>-434.5</v>
-      </c>
-      <c r="D87" s="1">
-        <v>-0.26549600000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>2126.6001000000001</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>-434.5</v>
-      </c>
-      <c r="D88" s="1">
-        <v>-0.25658799999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>2151.8000499999998</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>-434.5</v>
-      </c>
-      <c r="D89" s="1">
-        <v>-0.247668</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2177</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>-434.5</v>
-      </c>
-      <c r="D90" s="1">
-        <v>-0.239035</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2202.1999500000002</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>-434.5</v>
-      </c>
-      <c r="D91" s="1">
-        <v>-0.23050599999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>2227.3998999999999</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>-434.5</v>
-      </c>
-      <c r="D92" s="1">
-        <v>-0.22422900000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>2252.6001000000001</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>-434.5</v>
-      </c>
-      <c r="D93" s="1">
-        <v>-0.21057999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>2277.8000499999998</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>-434.5</v>
-      </c>
-      <c r="D94" s="1">
-        <v>-0.19925200000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>2303</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>-434.5</v>
-      </c>
-      <c r="D95" s="1">
-        <v>-0.18703400000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>2328.1999500000002</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>-434.5</v>
-      </c>
-      <c r="D96" s="1">
-        <v>-0.17534</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>2353.3998999999999</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>-434.5</v>
-      </c>
-      <c r="D97" s="1">
-        <v>-0.163161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>2378.6001000000001</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>-434.5</v>
-      </c>
-      <c r="D98" s="1">
-        <v>-0.15118000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>2403.8000499999998</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>-434.5</v>
-      </c>
-      <c r="D99" s="1">
-        <v>-0.138961</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>2429</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>-434.5</v>
-      </c>
-      <c r="D100" s="1">
-        <v>-0.12688099999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>2454.1999500000002</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>-434.5</v>
-      </c>
-      <c r="D101" s="1">
-        <v>-0.114841</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>2479.3998999999999</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>-434.5</v>
-      </c>
-      <c r="D102" s="1">
-        <v>-0.103145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>2504.6001000000001</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>-434.5</v>
-      </c>
-      <c r="D103" s="1">
-        <v>-9.2303399999999994E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>2529.8000499999998</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>-434.5</v>
-      </c>
-      <c r="D104" s="1">
-        <v>-7.85473E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>2555</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>-434.5</v>
-      </c>
-      <c r="D105" s="1">
-        <v>-6.5613000000000005E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>2580.1999500000002</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>-434.5</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-5.2146699999999997E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>2605.3998999999999</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>-434.5</v>
-      </c>
-      <c r="D107" s="1">
-        <v>-3.8994800000000003E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>2630.6001000000001</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>-434.5</v>
-      </c>
-      <c r="D108" s="1">
-        <v>-2.5661799999999999E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>2655.8000499999998</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>-434.5</v>
-      </c>
-      <c r="D109" s="1">
-        <v>-1.28068E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>2681</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>-434.5</v>
-      </c>
-      <c r="D110" s="1">
-        <v>-5.3496899999999998E-36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>2703.5</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>-434.5</v>
-      </c>
-      <c r="D111" s="1">
-        <v>9.1670599999999994E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>2726</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>-434.5</v>
-      </c>
-      <c r="D112" s="1">
-        <v>1.8334099999999999E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>2748.5</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>-434.5</v>
-      </c>
-      <c r="D113" s="1">
-        <v>2.75012E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>2771</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>-434.5</v>
-      </c>
-      <c r="D114" s="1">
-        <v>3.6668199999999998E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>